--- a/biology/Zoologie/Citation_d'auteurs_en_zoologie/Citation_d'auteurs_en_zoologie.xlsx
+++ b/biology/Zoologie/Citation_d'auteurs_en_zoologie/Citation_d'auteurs_en_zoologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Citation_d%27auteurs_en_zoologie</t>
+          <t>Citation_d'auteurs_en_zoologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En nomenclature zoologique, la citation d'auteurs se réfère au(x) nom(s) de personne(s) qui suivent le nom scientifique, c'est-à-dire le nom du ou des auteurs ayant publié les premiers ce nom. Cette citation est habituellement donnée dans les textes taxinomiques, même si elle est souvent omise dans les textes de vulgarisation. Le nom d'auteur ne fait pas partie du nom d'un taxon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Citation_d%27auteurs_en_zoologie</t>
+          <t>Citation_d'auteurs_en_zoologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le nom scientifique est un monôme (taxon supérieur ou égal au genre), un binôme (espèce) ou un trinôme (sous-espèce) qui désigne de manière unique un taxon. Ce nom, formé de termes transposés en latin, est inventé par l'auteur ayant en premier publié la description de ce taxon.
 Exemples :
@@ -527,9 +541,43 @@
 Le Code international de nomenclature zoologique divise les rangs en trois niveaux : "niveau famille" (super-famille, famille, sous-famille, tribu, sous-tribu, ainsi que de tout autre rang voulu au-dessous de la super-famille et au-dessus du genre.), "niveau genre" (genre, sous-genre...)  et "niveau espèce" (espèce, sous-espèce...). Dans un niveau particulier, le même auteur est accepté aussi pour un rang plus précis. Par exemple les noms suivant, de niveau famille (famille, sous-famille, tribu) ont la citation identique :
 Nymphalidae Swainson, 1827
 Nymphalinae Swainson, 1827
-Nymphalini Swainson, 1827
-Exemples
-Prenons l'exemple d'un papillon, le Vulcain :
+Nymphalini Swainson, 1827</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Citation_d'auteurs_en_zoologie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citation_d%27auteurs_en_zoologie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prenons l'exemple d'un papillon, le Vulcain :
 famille: Nymphalidae Swainson, 1827 donc également
 sous-famille: Nymphalinae Swainson, 1827 et
 tribu: Nymphalini Swainson, 1827
@@ -548,40 +596,115 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Citation_d%27auteurs_en_zoologie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Citation_d'auteurs_en_zoologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Citation_d%27auteurs_en_zoologie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Parenthèses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Niveau famille
-Lorsqu'on cite l'auteur et la date d'un nom du niveau famille maintenu pour cause d'usage prédominant, on devrait le faire en citant son auteur original et sa date, suivis, entre parenthèses, de la date de priorité[1].
-Exemple : Orphnephilidae Rondani, 1847, fondé sur Orphnephila Haliday, 1832, a été employé jusqu'à ce que Bezzi (1913) ait mis Orphnephila en synonymie de Thaumalea Ruthe, 1831, et ait adopté le nom Thaumaleidae pour la famille. Ce dernier nom doit être maintenu, car il a été presque universellement adopté depuis lors. La façon correcte de citer le nom de famille est : Thaumaleidae Bezzi, 1913 (1847)[1].
-Sous-genre
-Parfois le nom de sous-genre est présenté entre parenthèses entre le nom de genre et le nom d'espèce. Par exemple Hylobius abietis (Linnaeus, 1758), classé dans le sous-genre Callirus, devient Hylobius (Callirus) abietis (Linnaeus, 1758).
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'on cite l'auteur et la date d'un nom du niveau famille maintenu pour cause d'usage prédominant, on devrait le faire en citant son auteur original et sa date, suivis, entre parenthèses, de la date de priorité.
+Exemple : Orphnephilidae Rondani, 1847, fondé sur Orphnephila Haliday, 1832, a été employé jusqu'à ce que Bezzi (1913) ait mis Orphnephila en synonymie de Thaumalea Ruthe, 1831, et ait adopté le nom Thaumaleidae pour la famille. Ce dernier nom doit être maintenu, car il a été presque universellement adopté depuis lors. La façon correcte de citer le nom de famille est : Thaumaleidae Bezzi, 1913 (1847).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Citation_d'auteurs_en_zoologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citation_d%27auteurs_en_zoologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Parenthèses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parfois le nom de sous-genre est présenté entre parenthèses entre le nom de genre et le nom d'espèce. Par exemple Hylobius abietis (Linnaeus, 1758), classé dans le sous-genre Callirus, devient Hylobius (Callirus) abietis (Linnaeus, 1758).
 Dans ce cas, le nom du sous-genre ne fait pas partie du nom zoologique car celui-ci est un binôme, pas un trinôme.
-Niveau espèce
-En zoologie, contrairement à la botanique, c'est l'auteur et la date de publication originale de l'épithète spécifique qui restent toujours indiqués, malgré d'éventuelles recombinaisons ultérieures, et par conséquent le nom de l'auteur de la nouvelle combinaison n'est pas mentionné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Citation_d'auteurs_en_zoologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citation_d%27auteurs_en_zoologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Parenthèses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Niveau espèce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En zoologie, contrairement à la botanique, c'est l'auteur et la date de publication originale de l'épithète spécifique qui restent toujours indiqués, malgré d'éventuelles recombinaisons ultérieures, et par conséquent le nom de l'auteur de la nouvelle combinaison n'est pas mentionné.
 En cas d'une combinaison nouvelle, pour les espèces et les sous-espèces, des parenthèses sont utilisées pour signaler qu'il y a eu au moins un changement :
 espèce originelle : Papilio atalanta Linnaeus, 1758
 espèce recombinée : Vanessa atalanta (Linnaeus, 1758)
@@ -590,31 +713,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Citation_d%27auteurs_en_zoologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Citation_d'auteurs_en_zoologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Citation_d%27auteurs_en_zoologie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>« sensu »</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme dans les citations d'auteurs en botanique, on peut rencontrer le terme sensu (ou une de ses abréviations comme s. ou ss.) avec des auteurs à droite et à gauche. C'est seulement l'auteur à gauche qui a une valeur nomenclaturale. L'auteur à droite avait une opinion particulière sur la définition de ce taxon, et c'est sa définition particulière qui est référée.
 </t>
